--- a/Visual Search_final.xlsx
+++ b/Visual Search_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab in Psych\New Exp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED65C218-4C51-4F18-B60F-A5DD775EA930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D618F9D6-C190-4564-B70F-1EFBBD9C58C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FD5BACEA-7D43-4ECA-A064-924831BF9348}"/>
   </bookViews>
@@ -663,12 +663,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
